--- a/leetcode/leetcode_string.xlsx
+++ b/leetcode/leetcode_string.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5D8EF6-B390-4F36-BA5F-135617DF5031}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28C3229-1B1E-44E1-9B56-1B40138BA8EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
-    <sheet name="5" sheetId="14" r:id="rId2"/>
-    <sheet name="28" sheetId="15" r:id="rId3"/>
+    <sheet name="3" sheetId="16" r:id="rId2"/>
+    <sheet name="5" sheetId="14" r:id="rId3"/>
+    <sheet name="28" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="200">
   <si>
     <r>
       <t xml:space="preserve">class </t>
@@ -2901,13 +2902,1997 @@
   </si>
   <si>
     <t>2n+1轴扩散 &amp; 马拉车</t>
+  </si>
+  <si>
+    <t>3. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>approach#1 Vector</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Solution {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Runtime: 12 ms, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">78.22% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of C++ online submissions for Kth Largest Element in an Array.
+Memory Usage: 9.4 MB, less than</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 43.94% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>of C++ online submissions for Kth Largest Element in an Array.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>lengthOfLongestSubstring(string s) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">ret = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>cache[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">; i &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i++)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         cache[i] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">begin = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">count = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i &lt; s.size(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">         cache[s[i]]++;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(cache[s[i]] &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            cache[s[begin++]]--;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(i - begin + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">&gt; ret) ret = i - begin + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>ret;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   }</t>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>86.52%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> of Java online submissions for Longest Substring Without Repeating Characters.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>lengthOfLongestSubstring(String s) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>36.7 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>99.76%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> of Java online submissions for Longest Substring Without Repeating Characters.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">ret = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">[] memo = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>new int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">begin = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>; i &lt; s.length(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            memo[s.charAt(i)]++;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(memo[s.charAt(i)] != </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                memo[s.charAt(begin++)]--;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">(i - begin + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">&gt; ret) ret = i - begin + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>ret;</t>
+    </r>
+  </si>
+  <si>
+    <t>approach#2  Set</t>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>10 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>44.59%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> of Java online submissions for Longest Substring Without Repeating Characters.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>36.4 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>99.76%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> of Java online submissions for Longest Substring Without Repeating Characters.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">begin = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">, end = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Set&lt;Character&gt; set = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>HashSet&lt;&gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(end &lt; s.length()) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>(set.contains(s.charAt(end))) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                set.remove(s.charAt(begin++));</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            } </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.4"/>
+        <color rgb="FF000080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                set.add(s.charAt(end++));</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8.4"/>
+        <color rgb="FF808080"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>//ret = Math.max(ret, end-begin);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>ret = Math.max(ret, set.size());</t>
+    </r>
+  </si>
+  <si>
+    <t>approach#3 no memory</t>
+  </si>
+  <si>
+    <t>//Runtime: 2 ms, faster than 99.82% of Java online submissions for Longest Substring Without Repeating Characters.</t>
+  </si>
+  <si>
+    <t>//        Memory Usage: 36.8 MB, less than 99.76% of Java online submissions for Longest Substring Without Repeating Characters.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>lengthOfLongestSubstring(String s) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(n&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>n;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ans = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">pre = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">count = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>i=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; i&lt;s.length(); i++) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>j=pre; j&lt;i; j++){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(s.charAt(i) == s.charAt(j)) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    pre = j+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            count = i - pre + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(count &gt; ans) ans = count;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ans;</t>
+    </r>
+  </si>
+  <si>
+    <t>//???</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Solution {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Runtime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, faster than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>99.82%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> of Java online submissions for Longest Substring Without Repeating Characters.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Memory Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>37.5 MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, less than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF263238"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>83.49%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF455A64"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> of Java online submissions for Longest Substring Without Repeating Characters.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">n = s.length(), ans = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[] index = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>new int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>// current index of character</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        // try to extend the range [i, j]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">j = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, i = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>; j &lt; n; j++) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            i = Math.max(index[s.charAt(j)], i);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            ans = Math.max(ans, j - i + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            index[s.charAt(j)] = j + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3003,6 +4988,65 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8.4"/>
+      <color rgb="FF660E7A"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="8.4"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF455A64"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF455A64"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.4"/>
+      <color rgb="FF000080"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="8.4"/>
+      <color rgb="FF0000FF"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF455A64"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF263238"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF263238"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8.4"/>
+      <color rgb="FF808080"/>
+      <name val="SimSun"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3064,7 +5108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3143,6 +5187,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3569,13 +5645,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A797B7D2-7098-45CE-A64F-08EFFC1E6FA0}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="2" width="16.28515625" style="9" customWidth="1"/>
@@ -3584,7 +5660,7 @@
     <col min="6" max="6" width="21.5703125" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -3602,106 +5678,122 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">INDIRECT(B2&amp;"!A1")</f>
-        <v>5. Longest Palindromic Substring</v>
+        <v>3. Longest Substring Without Repeating Characters</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="10"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="11">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C3" s="10" t="str">
         <f ca="1">INDIRECT(B3&amp;"!A1")</f>
-        <v>28. Implement strStr()</v>
+        <v>5. Longest Palindromic Substring</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="16"/>
       <c r="F3" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f ca="1">INDIRECT(B4&amp;"!A1")</f>
+        <v>28. Implement strStr()</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="11">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="11">
-        <f t="shared" ref="A6:A8" si="0">A5+1</f>
+        <f>A4+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A7:A9" si="0">A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="11">
-        <f t="shared" ref="A9" si="1">A8+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11">
+        <f t="shared" ref="A10" si="1">A9+1</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3709,6 +5801,531 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1F61D-1BA6-4E0D-B6B8-967D5487E1C9}">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" style="27"/>
+    <col min="3" max="3" width="10.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="73.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25">
+      <c r="A1" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="D5" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" s="37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" s="37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="D9" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16" s="39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="D17" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="D18" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="D19" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="D20" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="D21" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="D22" s="37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="D23" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="17.25">
+      <c r="C26" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="17.25">
+      <c r="D27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="D28" s="37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="D29" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="D30" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="D31" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="D32" s="37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="D33" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="D34" s="37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="D35" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="D36" s="38"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="D37" s="37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="D38" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="D39" s="37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="D40" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="D41" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="24">
+      <c r="B43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="24">
+      <c r="C44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="D45" s="37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="D46" s="37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="D47" s="37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="D48" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="D49" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="D50" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="D51" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="D52" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="D53" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="D54" s="38"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="D55" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="D56" s="42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="D58" s="43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="D59" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="D60" s="43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="D61" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6">
+      <c r="D81" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6">
+      <c r="D82" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="D83" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6">
+      <c r="D84" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6">
+      <c r="D85" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6">
+      <c r="D86" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6">
+      <c r="D89" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" ht="24">
+      <c r="D90" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F90" s="35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" ht="24">
+      <c r="D91" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F91" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6">
+      <c r="D92" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6">
+      <c r="D93" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6">
+      <c r="D94" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6">
+      <c r="D95" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6">
+      <c r="D96" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2C5D0F2D-6A91-4559-9305-CE27FB09D7B4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EB36E-1494-452A-8598-B82F10A5D5CA}">
   <dimension ref="A1:D105"/>
   <sheetViews>
@@ -3716,485 +6333,485 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="102.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.25">
       <c r="A1" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="D16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4">
       <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4">
       <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4">
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4">
       <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4">
       <c r="D21" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4">
       <c r="D22" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4">
       <c r="D23" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4">
       <c r="D24" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4">
       <c r="D25" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4">
       <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4">
       <c r="D27" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4">
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4">
       <c r="D29" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4">
       <c r="D30" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4">
       <c r="D31" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4">
       <c r="D32" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4">
       <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4">
       <c r="D35" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4">
       <c r="D36" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4">
       <c r="D37" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4">
       <c r="D38" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4">
       <c r="D39" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4">
       <c r="D40" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4">
       <c r="D41" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4">
       <c r="D42" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4">
       <c r="D43" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4">
       <c r="D44" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4">
       <c r="D45" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" ht="15.75">
       <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" ht="15.75">
       <c r="B50" s="27"/>
       <c r="C50" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4">
       <c r="D51" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4">
       <c r="D52" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4">
       <c r="D53" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4">
       <c r="D54" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4">
       <c r="D55" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4">
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4">
       <c r="D57" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4">
       <c r="D58" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4">
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4">
       <c r="D60" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4">
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4">
       <c r="D62" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4">
       <c r="D63" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4">
       <c r="D64" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4">
       <c r="D65" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4">
       <c r="D66" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4">
       <c r="D67" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4">
       <c r="D68" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4">
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4">
       <c r="D70" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4">
       <c r="D71" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4">
       <c r="D72" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4">
       <c r="D73" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4">
       <c r="D74" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4">
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4">
       <c r="D76" s="29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4">
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4">
       <c r="D78" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4">
       <c r="D79" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4">
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4">
       <c r="D81" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4">
       <c r="D82" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4">
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4">
       <c r="D84" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4">
       <c r="D85" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4">
       <c r="D86" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4">
       <c r="D87" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4">
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4">
       <c r="D89" s="29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4">
       <c r="D90" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4">
       <c r="D91" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4">
       <c r="D92" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4">
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4">
       <c r="D94" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4">
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4">
       <c r="D96" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4">
       <c r="D97" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4">
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4">
       <c r="D99" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4">
       <c r="D100" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4">
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4">
       <c r="D102" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4">
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:4">
       <c r="D104" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4">
       <c r="D105" s="4" t="s">
         <v>12</v>
       </c>
@@ -4209,7 +6826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F89C14-EB96-41AE-ABD4-B3EA5731EAEA}">
   <dimension ref="A1:D86"/>
   <sheetViews>
@@ -4217,422 +6834,422 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="107.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.25">
       <c r="A1" s="30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75">
       <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="D5" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="D6" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="D7" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="D8" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="D9" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="D10" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="D11" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="D12" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="D13" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="D14" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="D17" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="D18" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="D19" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="D20" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="D21" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="D22" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="D24" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="15.75">
       <c r="B26" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="15.75">
       <c r="B27" s="27"/>
       <c r="C27" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="D28" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="D29" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="D30" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="D31" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="D32" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4">
       <c r="D33" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4">
       <c r="D34" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4">
       <c r="D35" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4">
       <c r="D36" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4">
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4">
       <c r="D38" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4">
       <c r="D39" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4">
       <c r="D40" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4">
       <c r="D41" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4">
       <c r="D42" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4">
       <c r="D43" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4">
       <c r="D44" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4">
       <c r="D45" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4">
       <c r="D46" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4">
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4">
       <c r="D48" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4">
       <c r="D49" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4">
       <c r="D50" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4">
       <c r="D51" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4">
       <c r="D52" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4">
       <c r="D53" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4">
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4">
       <c r="D55" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4">
       <c r="D56" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4">
       <c r="D57" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4">
       <c r="D58" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4">
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4">
       <c r="D60" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4">
       <c r="D61" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4">
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4">
       <c r="D63" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4">
       <c r="D64" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4">
       <c r="D65" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4">
       <c r="D66" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4">
       <c r="D67" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4">
       <c r="D68" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4">
       <c r="D69" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4">
       <c r="D70" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4">
       <c r="D71" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4">
       <c r="D72" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4">
       <c r="D73" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4">
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4">
       <c r="D75" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4">
       <c r="D76" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4">
       <c r="D77" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4">
       <c r="D78" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4">
       <c r="D79" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4">
       <c r="D80" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4">
       <c r="D81" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4">
       <c r="D82" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4">
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4">
       <c r="D84" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4">
       <c r="D85" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4">
       <c r="D86" s="4" t="s">
         <v>89</v>
       </c>

--- a/leetcode/leetcode_string.xlsx
+++ b/leetcode/leetcode_string.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28C3229-1B1E-44E1-9B56-1B40138BA8EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393F68C0-DBC8-4311-BDE2-BA697572D39E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="199">
   <si>
     <r>
       <t xml:space="preserve">class </t>
@@ -4543,9 +4543,6 @@
       </rPr>
       <t>ans;</t>
     </r>
-  </si>
-  <si>
-    <t>//???</t>
   </si>
   <si>
     <r>
@@ -5647,8 +5644,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5804,7 +5801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1F61D-1BA6-4E0D-B6B8-967D5487E1C9}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15.75"/>
   <cols>
@@ -6242,16 +6241,14 @@
       </c>
     </row>
     <row r="89" spans="4:6">
-      <c r="D89" s="7" t="s">
-        <v>189</v>
-      </c>
+      <c r="D89" s="7"/>
     </row>
     <row r="90" spans="4:6" ht="24">
       <c r="D90" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F90" s="35" t="s">
         <v>190</v>
-      </c>
-      <c r="F90" s="35" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="91" spans="4:6" ht="24">
@@ -6259,42 +6256,42 @@
         <v>177</v>
       </c>
       <c r="F91" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="4:6">
       <c r="D92" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="4:6">
       <c r="D93" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="4:6">
       <c r="D94" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="4:6">
       <c r="D95" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="4:6">
       <c r="D96" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="4:4">
@@ -6329,8 +6326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EB36E-1494-452A-8598-B82F10A5D5CA}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6830,8 +6827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F89C14-EB96-41AE-ABD4-B3EA5731EAEA}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/leetcode/leetcode_string.xlsx
+++ b/leetcode/leetcode_string.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393F68C0-DBC8-4311-BDE2-BA697572D39E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895204E8-943C-4E7D-94DC-F3D8FE9966B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-1008" windowWidth="21816" windowHeight="13116" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -5648,13 +5648,13 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="16.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="8"/>
+    <col min="2" max="2" width="16.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5805,14 +5805,14 @@
       <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="10.140625" style="27"/>
-    <col min="3" max="3" width="10.7109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="73.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="27"/>
+    <col min="3" max="3" width="10.6640625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:6" ht="19.2">
       <c r="A1" s="32" t="s">
         <v>128</v>
       </c>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
+    <row r="4" spans="1:6" ht="16.8">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>75</v>
@@ -5841,7 +5841,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5">
+    <row r="5" spans="1:6" ht="16.8">
       <c r="D5" s="33" t="s">
         <v>133</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="17.25">
+    <row r="26" spans="3:6" ht="19.2">
       <c r="C26" s="27" t="s">
         <v>10</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="17.25">
+    <row r="27" spans="3:6" ht="19.2">
       <c r="D27" s="37" t="s">
         <v>151</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="24">
+    <row r="43" spans="2:6" ht="23.4">
       <c r="B43" s="1" t="s">
         <v>162</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="24">
+    <row r="44" spans="2:6" ht="23.4">
       <c r="C44" s="27" t="s">
         <v>10</v>
       </c>
@@ -6243,7 +6243,7 @@
     <row r="89" spans="4:6">
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="4:6" ht="24">
+    <row r="90" spans="4:6" ht="23.4">
       <c r="D90" s="6" t="s">
         <v>189</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="4:6" ht="24">
+    <row r="91" spans="4:6" ht="23.4">
       <c r="D91" s="4" t="s">
         <v>177</v>
       </c>
@@ -6330,13 +6330,13 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="102.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25">
+    <row r="1" spans="1:4" ht="19.2">
       <c r="A1" s="28" t="s">
         <v>16</v>
       </c>
@@ -6346,13 +6346,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="3" spans="1:4" ht="15.6">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" ht="15.6">
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
         <v>10</v>
@@ -6553,13 +6553,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="15.75">
+    <row r="49" spans="2:4" ht="15.6">
       <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:4" ht="15.75">
+    <row r="50" spans="2:4" ht="15.6">
       <c r="B50" s="27"/>
       <c r="C50" s="27" t="s">
         <v>10</v>
@@ -6828,15 +6828,15 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="107.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25">
+    <row r="1" spans="1:4" ht="19.2">
       <c r="A1" s="30" t="s">
         <v>76</v>
       </c>
@@ -6846,13 +6846,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="3" spans="1:4" ht="15.6">
       <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" ht="15.6">
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
         <v>75</v>
@@ -6958,13 +6958,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75">
+    <row r="26" spans="2:4" ht="15.6">
       <c r="B26" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="15.75">
+    <row r="27" spans="2:4" ht="15.6">
       <c r="B27" s="27"/>
       <c r="C27" s="27" t="s">
         <v>75</v>

--- a/leetcode/leetcode_string.xlsx
+++ b/leetcode/leetcode_string.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895204E8-943C-4E7D-94DC-F3D8FE9966B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A12E57-FE0B-6245-AE2C-979BDEEC5E7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-1008" windowWidth="21816" windowHeight="13116" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-41360" yWindow="7500" windowWidth="38400" windowHeight="19880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
     <sheet name="3" sheetId="16" r:id="rId2"/>
     <sheet name="5" sheetId="14" r:id="rId3"/>
-    <sheet name="28" sheetId="15" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId4"/>
+    <sheet name="28" sheetId="15" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="207">
   <si>
     <r>
       <t xml:space="preserve">class </t>
@@ -2921,6 +2916,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>Solution {</t>
     </r>
@@ -2978,6 +2974,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -2992,6 +2989,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -3000,6 +2998,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>lengthOfLongestSubstring(string s) {</t>
     </r>
@@ -3014,6 +3013,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -3022,6 +3022,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ret = </t>
     </r>
@@ -3030,6 +3031,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3038,6 +3040,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -3052,6 +3055,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -3060,6 +3064,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>cache[</t>
     </r>
@@ -3068,6 +3073,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>256</t>
     </r>
@@ -3076,6 +3082,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>];</t>
     </r>
@@ -3090,6 +3097,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">for </t>
     </r>
@@ -3098,6 +3106,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3107,6 +3116,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -3115,6 +3125,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">i = </t>
     </r>
@@ -3123,6 +3134,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3131,6 +3143,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">; i &lt; </t>
     </r>
@@ -3139,6 +3152,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>256</t>
     </r>
@@ -3147,6 +3161,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>; i++)</t>
     </r>
@@ -3160,6 +3175,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3168,6 +3184,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -3182,6 +3199,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -3190,6 +3208,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">begin = </t>
     </r>
@@ -3198,6 +3217,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3206,6 +3226,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -3220,6 +3241,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -3228,6 +3250,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">count = </t>
     </r>
@@ -3236,6 +3259,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3244,6 +3268,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -3258,6 +3283,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">for </t>
     </r>
@@ -3266,6 +3292,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3275,6 +3302,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -3283,6 +3311,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">i = </t>
     </r>
@@ -3291,6 +3320,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3299,6 +3329,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>; i &lt; s.size(); i++) {</t>
     </r>
@@ -3316,6 +3347,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">while </t>
     </r>
@@ -3324,6 +3356,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">(cache[s[i]] &gt; </t>
     </r>
@@ -3332,6 +3365,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -3340,6 +3374,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>) {</t>
     </r>
@@ -3360,6 +3395,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">if </t>
     </r>
@@ -3368,6 +3404,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">(i - begin + </t>
     </r>
@@ -3376,6 +3413,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -3384,6 +3422,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&gt; ret) ret = i - begin + </t>
     </r>
@@ -3392,6 +3431,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -3400,6 +3440,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -3417,6 +3458,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">return </t>
     </r>
@@ -3425,6 +3467,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>ret;</t>
     </r>
@@ -3483,6 +3526,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">public int </t>
     </r>
@@ -3491,6 +3535,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>lengthOfLongestSubstring(String s) {</t>
     </r>
@@ -3546,6 +3591,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -3554,6 +3600,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ret = </t>
     </r>
@@ -3562,6 +3609,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3570,6 +3618,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -3584,6 +3633,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>int</t>
     </r>
@@ -3592,6 +3642,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">[] memo = </t>
     </r>
@@ -3601,6 +3652,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>new int</t>
     </r>
@@ -3609,6 +3661,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>[</t>
     </r>
@@ -3617,6 +3670,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>256</t>
     </r>
@@ -3625,6 +3679,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>];</t>
     </r>
@@ -3639,6 +3694,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -3647,6 +3703,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">begin = </t>
     </r>
@@ -3655,6 +3712,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3663,6 +3721,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -3677,6 +3736,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">for </t>
     </r>
@@ -3685,6 +3745,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3694,6 +3755,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -3702,6 +3764,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">i = </t>
     </r>
@@ -3710,6 +3773,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3718,6 +3782,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>; i &lt; s.length(); i++) {</t>
     </r>
@@ -3735,6 +3800,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">while </t>
     </r>
@@ -3743,6 +3809,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">(memo[s.charAt(i)] != </t>
     </r>
@@ -3751,6 +3818,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -3759,6 +3827,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>) {</t>
     </r>
@@ -3776,6 +3845,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">if </t>
     </r>
@@ -3784,6 +3854,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">(i - begin + </t>
     </r>
@@ -3792,6 +3863,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -3800,6 +3872,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&gt; ret) ret = i - begin + </t>
     </r>
@@ -3808,6 +3881,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -3816,6 +3890,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -3830,6 +3905,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">return </t>
     </r>
@@ -3838,6 +3914,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>ret;</t>
     </r>
@@ -3937,6 +4014,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -3945,6 +4023,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">begin = </t>
     </r>
@@ -3953,6 +4032,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3961,6 +4041,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, end = </t>
     </r>
@@ -3969,6 +4050,7 @@
         <sz val="8.4"/>
         <color rgb="FF0000FF"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -3977,6 +4059,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>;</t>
     </r>
@@ -3991,6 +4074,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">new </t>
     </r>
@@ -3999,6 +4083,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>HashSet&lt;&gt;();</t>
     </r>
@@ -4013,6 +4098,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">while </t>
     </r>
@@ -4021,6 +4107,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>(end &lt; s.length()) {</t>
     </r>
@@ -4035,6 +4122,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">if </t>
     </r>
@@ -4043,6 +4131,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>(set.contains(s.charAt(end))) {</t>
     </r>
@@ -4060,6 +4149,7 @@
         <sz val="8.4"/>
         <color rgb="FF000080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">else </t>
     </r>
@@ -4068,6 +4158,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>{</t>
     </r>
@@ -4085,6 +4176,7 @@
         <sz val="8.4"/>
         <color rgb="FF808080"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>//ret = Math.max(ret, end-begin);</t>
     </r>
@@ -4098,6 +4190,7 @@
         <sz val="8.4"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>ret = Math.max(ret, set.size());</t>
     </r>
@@ -4883,6 +4976,30 @@
       </rPr>
       <t>;</t>
     </r>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>redius[ ]</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -4990,11 +5107,13 @@
       <sz val="8.4"/>
       <color rgb="FF660E7A"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8.4"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5014,11 +5133,13 @@
       <sz val="8.4"/>
       <color rgb="FF000080"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8.4"/>
       <color rgb="FF0000FF"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
@@ -5043,6 +5164,7 @@
       <sz val="8.4"/>
       <color rgb="FF808080"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5645,16 +5767,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="8"/>
+    <col min="1" max="1" width="9.1640625" style="8"/>
     <col min="2" max="2" width="16.33203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5805,14 +5927,14 @@
       <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="10.109375" style="27"/>
+    <col min="2" max="2" width="10.1640625" style="27"/>
     <col min="3" max="3" width="10.6640625" style="27" customWidth="1"/>
     <col min="4" max="4" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="32" t="s">
         <v>128</v>
       </c>
@@ -5828,7 +5950,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.8">
+    <row r="4" spans="1:6" ht="17">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>75</v>
@@ -5841,7 +5963,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.8">
+    <row r="5" spans="1:6" ht="17">
       <c r="D5" s="33" t="s">
         <v>133</v>
       </c>
@@ -5935,7 +6057,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="19.2">
+    <row r="26" spans="3:6" ht="18">
       <c r="C26" s="27" t="s">
         <v>10</v>
       </c>
@@ -5946,7 +6068,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="19.2">
+    <row r="27" spans="3:6" ht="18">
       <c r="D27" s="37" t="s">
         <v>151</v>
       </c>
@@ -6022,7 +6144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="23.4">
+    <row r="43" spans="2:6" ht="22">
       <c r="B43" s="1" t="s">
         <v>162</v>
       </c>
@@ -6033,7 +6155,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="23.4">
+    <row r="44" spans="2:6" ht="22">
       <c r="C44" s="27" t="s">
         <v>10</v>
       </c>
@@ -6243,7 +6365,7 @@
     <row r="89" spans="4:6">
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="4:6" ht="23.4">
+    <row r="90" spans="4:6" ht="22">
       <c r="D90" s="6" t="s">
         <v>189</v>
       </c>
@@ -6251,7 +6373,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="4:6" ht="23.4">
+    <row r="91" spans="4:6" ht="22">
       <c r="D91" s="4" t="s">
         <v>177</v>
       </c>
@@ -6326,17 +6448,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EB36E-1494-452A-8598-B82F10A5D5CA}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="P98" sqref="P98"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="102.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="102.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.2">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="28" t="s">
         <v>16</v>
       </c>
@@ -6346,13 +6468,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6">
+    <row r="3" spans="1:4" ht="16">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6">
+    <row r="4" spans="1:4" ht="16">
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
         <v>10</v>
@@ -6553,13 +6675,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="15.6">
+    <row r="49" spans="2:4" ht="16">
       <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:4" ht="15.6">
+    <row r="50" spans="2:4" ht="16">
       <c r="B50" s="27"/>
       <c r="C50" s="27" t="s">
         <v>10</v>
@@ -6824,19 +6946,248 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908B5B5F-50E9-6342-8E6F-86CD1F96CDF9}">
+  <dimension ref="F33:W38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="21" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="33" spans="6:23">
+      <c r="F33" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8">
+        <v>3</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
+        <v>1</v>
+      </c>
+      <c r="N33" s="8">
+        <v>6</v>
+      </c>
+      <c r="O33" s="8">
+        <v>1</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>3</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="8">
+        <v>1</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+    </row>
+    <row r="34" spans="6:23">
+      <c r="F34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1</v>
+      </c>
+      <c r="I34" s="8">
+        <v>2</v>
+      </c>
+      <c r="J34" s="8">
+        <v>3</v>
+      </c>
+      <c r="K34" s="8">
+        <v>4</v>
+      </c>
+      <c r="L34" s="8">
+        <v>5</v>
+      </c>
+      <c r="M34" s="8">
+        <v>6</v>
+      </c>
+      <c r="N34" s="8">
+        <v>7</v>
+      </c>
+      <c r="O34" s="8">
+        <v>8</v>
+      </c>
+      <c r="P34" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>10</v>
+      </c>
+      <c r="R34" s="8">
+        <v>11</v>
+      </c>
+      <c r="S34" s="8">
+        <v>12</v>
+      </c>
+      <c r="T34" s="8">
+        <v>13</v>
+      </c>
+      <c r="U34" s="8">
+        <v>14</v>
+      </c>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+    </row>
+    <row r="35" spans="6:23">
+      <c r="G35" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="U35" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+    </row>
+    <row r="36" spans="6:23">
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+    </row>
+    <row r="37" spans="6:23">
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+    </row>
+    <row r="38" spans="6:23">
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F89C14-EB96-41AE-ABD4-B3EA5731EAEA}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="107.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.2">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="30" t="s">
         <v>76</v>
       </c>
@@ -6846,13 +7197,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6">
+    <row r="3" spans="1:4" ht="16">
       <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6">
+    <row r="4" spans="1:4" ht="16">
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
         <v>75</v>
@@ -6958,13 +7309,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.6">
+    <row r="26" spans="2:4" ht="16">
       <c r="B26" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="15.6">
+    <row r="27" spans="2:4" ht="16">
       <c r="B27" s="27"/>
       <c r="C27" s="27" t="s">
         <v>75</v>
